--- a/src/test/resources/src/DATA for WEB ELEMENT.xlsx
+++ b/src/test/resources/src/DATA for WEB ELEMENT.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19788" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="5745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Url</t>
   </si>
@@ -33,12 +32,22 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,41 +384,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>105</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
